--- a/output/planilhas/leilaoimoveis_fortaleza-ce.xlsx
+++ b/output/planilhas/leilaoimoveis_fortaleza-ce.xlsx
@@ -538,7 +538,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -572,7 +572,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -581,15 +581,11 @@
 </t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>62166</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>5533031</t>
-        </is>
+      <c r="Q2" t="n">
+        <v>62166</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5533031</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -605,7 +601,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -645,7 +641,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -653,15 +649,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>82819</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q3" t="n">
+        <v>82819</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -677,7 +669,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -719,7 +711,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -727,15 +719,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>73457</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>5045363</t>
-        </is>
+      <c r="Q4" t="n">
+        <v>73457</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5045363</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -751,7 +739,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -793,7 +781,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -801,15 +789,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>41931</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>8241899</t>
-        </is>
+      <c r="Q5" t="n">
+        <v>41931</v>
+      </c>
+      <c r="R5" t="n">
+        <v>8241899</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -825,7 +809,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -867,7 +851,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -875,15 +859,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>53061</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>8012393</t>
-        </is>
+      <c r="Q6" t="n">
+        <v>53061</v>
+      </c>
+      <c r="R6" t="n">
+        <v>8012393</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -899,7 +879,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -941,7 +921,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -949,15 +929,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>19710</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>8272980</t>
-        </is>
+      <c r="Q7" t="n">
+        <v>19710</v>
+      </c>
+      <c r="R7" t="n">
+        <v>8272980</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -973,7 +949,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1015,7 +991,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1023,15 +999,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>54067</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>8207410</t>
-        </is>
+      <c r="Q8" t="n">
+        <v>54067</v>
+      </c>
+      <c r="R8" t="n">
+        <v>8207410</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1047,7 +1019,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1087,7 +1059,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1095,15 +1067,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>27853</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q9" t="n">
+        <v>27853</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1119,7 +1087,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1163,7 +1131,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1171,15 +1139,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>75213</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q10" t="n">
+        <v>75213</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1195,7 +1159,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1237,7 +1201,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1245,15 +1209,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>83245</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>7383223</t>
-        </is>
+      <c r="Q11" t="n">
+        <v>83245</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7383223</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1269,7 +1229,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1311,7 +1271,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1319,15 +1279,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>85246</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>7140649</t>
-        </is>
+      <c r="Q12" t="n">
+        <v>85246</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7140649</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1343,7 +1299,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1385,7 +1341,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1393,15 +1349,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>16751</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q13" t="n">
+        <v>16751</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1417,7 +1369,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1459,7 +1411,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1467,15 +1419,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>104576</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q14" t="n">
+        <v>104576</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1491,7 +1439,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1531,7 +1479,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1539,15 +1487,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>13823</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q15" t="n">
+        <v>13823</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1563,7 +1507,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1605,7 +1549,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1613,15 +1557,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>37087</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q16" t="n">
+        <v>37087</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1637,7 +1577,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1679,7 +1619,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1687,15 +1627,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>9513</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q17" t="n">
+        <v>9513</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -1711,7 +1647,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1747,7 +1683,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>LicitaçãoAbertaCaixa</t>
+          <t>Licitação Aberta Caixa</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1755,10 +1691,8 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>78721</t>
-        </is>
+      <c r="Q18" t="n">
+        <v>78721</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1777,7 +1711,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1817,7 +1751,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>LicitaçãoAbertaCaixa</t>
+          <t>Licitação Aberta Caixa</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1825,15 +1759,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>18105</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>6649041</t>
-        </is>
+      <c r="Q19" t="n">
+        <v>18105</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6649041</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -1849,7 +1779,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1881,7 +1811,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1890,15 +1820,11 @@
 </t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>77065</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>7295618</t>
-        </is>
+      <c r="Q20" t="n">
+        <v>77065</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7295618</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -1914,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1952,7 +1878,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>VendaOnlineCaixa</t>
+          <t>Venda Online Caixa</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -1961,15 +1887,11 @@
 </t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>37012</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>2931281</t>
-        </is>
+      <c r="Q21" t="n">
+        <v>37012</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2931281</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -1985,7 +1907,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2017,7 +1939,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2026,15 +1948,11 @@
 </t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>33673</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>3500241</t>
-        </is>
+      <c r="Q22" t="n">
+        <v>33673</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3500241</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2050,7 +1968,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2088,7 +2006,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>VendaOnlineCaixa</t>
+          <t>Venda Online Caixa</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2097,15 +2015,11 @@
 </t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>29707</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>3527840</t>
-        </is>
+      <c r="Q23" t="n">
+        <v>29707</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3527840</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2121,7 +2035,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2163,7 +2077,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2171,15 +2085,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>58165</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>4852796</t>
-        </is>
+      <c r="Q24" t="n">
+        <v>58165</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4852796</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2195,7 +2105,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2239,7 +2149,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2247,15 +2157,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>13343</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>621137</t>
-        </is>
+      <c r="Q25" t="n">
+        <v>13343</v>
+      </c>
+      <c r="R25" t="n">
+        <v>621137</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2271,7 +2177,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2309,7 +2215,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2317,15 +2223,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>33715</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>6390528</t>
-        </is>
+      <c r="Q26" t="n">
+        <v>33715</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6390528</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2341,7 +2243,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2385,7 +2287,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2393,15 +2295,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>36505</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q27" t="n">
+        <v>36505</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2417,7 +2315,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Terreno </t>
+          <t>Terreno</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2455,7 +2353,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2463,15 +2361,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>32001</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q28" t="n">
+        <v>32001</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -2487,7 +2381,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2529,7 +2423,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2537,15 +2431,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>53243</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q29" t="n">
+        <v>53243</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -2561,7 +2451,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2603,7 +2493,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2611,15 +2501,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>83873</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q30" t="n">
+        <v>83873</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -2635,7 +2521,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2675,7 +2561,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -2683,15 +2569,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>65166</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>8900523</t>
-        </is>
+      <c r="Q31" t="n">
+        <v>65166</v>
+      </c>
+      <c r="R31" t="n">
+        <v>8900523</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -2707,7 +2589,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2747,7 +2629,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2755,15 +2637,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>35910</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q32" t="n">
+        <v>35910</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -2779,7 +2657,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2821,7 +2699,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2829,15 +2707,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>43565</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>7931409</t>
-        </is>
+      <c r="Q33" t="n">
+        <v>43565</v>
+      </c>
+      <c r="R33" t="n">
+        <v>7931409</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -2853,7 +2727,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2895,7 +2769,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -2903,15 +2777,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>50137</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>2993490</t>
-        </is>
+      <c r="Q34" t="n">
+        <v>50137</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2993490</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -2927,7 +2797,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2969,7 +2839,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -2977,15 +2847,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>84136</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q35" t="n">
+        <v>84136</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3001,7 +2867,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -3043,7 +2909,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3051,15 +2917,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>47487</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q36" t="n">
+        <v>47487</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3075,7 +2937,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3117,7 +2979,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3125,15 +2987,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>48655</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>8251851</t>
-        </is>
+      <c r="Q37" t="n">
+        <v>48655</v>
+      </c>
+      <c r="R37" t="n">
+        <v>8251851</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3149,7 +3007,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3191,7 +3049,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3199,15 +3057,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>40467</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>6747094</t>
-        </is>
+      <c r="Q38" t="n">
+        <v>40467</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6747094</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3223,7 +3077,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3265,7 +3119,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3273,15 +3127,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>90312</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>8494002</t>
-        </is>
+      <c r="Q39" t="n">
+        <v>90312</v>
+      </c>
+      <c r="R39" t="n">
+        <v>8494002</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -3297,7 +3147,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3339,7 +3189,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3347,15 +3197,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>38044</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>7337477</t>
-        </is>
+      <c r="Q40" t="n">
+        <v>38044</v>
+      </c>
+      <c r="R40" t="n">
+        <v>7337477</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -3371,7 +3217,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3413,7 +3259,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3421,15 +3267,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>5450</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>40931</t>
-        </is>
+      <c r="Q41" t="n">
+        <v>5450</v>
+      </c>
+      <c r="R41" t="n">
+        <v>40931</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -3445,7 +3287,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3483,7 +3325,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>LicitaçãoAbertaCaixa</t>
+          <t>Licitação Aberta Caixa</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3491,15 +3333,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>24069</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>3644200</t>
-        </is>
+      <c r="Q42" t="n">
+        <v>24069</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3644200</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -3515,7 +3353,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3555,7 +3393,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>LicitaçãoAbertaCaixa</t>
+          <t>Licitação Aberta Caixa</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3563,10 +3401,8 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>77454</t>
-        </is>
+      <c r="Q43" t="n">
+        <v>77454</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3585,7 +3421,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3625,7 +3461,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>LicitaçãoAbertaCaixa</t>
+          <t>Licitação Aberta Caixa</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3633,15 +3469,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>91731</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>8049351</t>
-        </is>
+      <c r="Q44" t="n">
+        <v>91731</v>
+      </c>
+      <c r="R44" t="n">
+        <v>8049351</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -3657,7 +3489,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3697,7 +3529,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>LicitaçãoAbertaCaixa</t>
+          <t>Licitação Aberta Caixa</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3705,10 +3537,8 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>84658</t>
-        </is>
+      <c r="Q45" t="n">
+        <v>84658</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -3727,7 +3557,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3765,7 +3595,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>LicitaçãoAbertaCaixa</t>
+          <t>Licitação Aberta Caixa</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3773,10 +3603,8 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>102207</t>
-        </is>
+      <c r="Q46" t="n">
+        <v>102207</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -3795,7 +3623,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3835,7 +3663,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>LicitaçãoAbertaCaixa</t>
+          <t>Licitação Aberta Caixa</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -3843,15 +3671,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>17482</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>5844320</t>
-        </is>
+      <c r="Q47" t="n">
+        <v>17482</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5844320</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -3867,7 +3691,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3905,7 +3729,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>LicitaçãoAbertaCaixa</t>
+          <t>Licitação Aberta Caixa</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -3913,10 +3737,8 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>103746</t>
-        </is>
+      <c r="Q48" t="n">
+        <v>103746</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -3935,7 +3757,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3973,7 +3795,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>LicitaçãoAbertaCaixa</t>
+          <t>Licitação Aberta Caixa</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -3981,10 +3803,8 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>94356</t>
-        </is>
+      <c r="Q49" t="n">
+        <v>94356</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -4003,7 +3823,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -4035,7 +3855,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4044,15 +3864,11 @@
 </t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>96965</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>8994285</t>
-        </is>
+      <c r="Q50" t="n">
+        <v>96965</v>
+      </c>
+      <c r="R50" t="n">
+        <v>8994285</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -4068,7 +3884,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4104,7 +3920,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>VendaOnlineCaixa</t>
+          <t>Venda Online Caixa</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4113,15 +3929,11 @@
 </t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>035709</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>6390498</t>
-        </is>
+      <c r="Q51" t="n">
+        <v>35709</v>
+      </c>
+      <c r="R51" t="n">
+        <v>6390498</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -4137,7 +3949,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -4171,7 +3983,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4180,15 +3992,11 @@
 </t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>83039</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>8006172</t>
-        </is>
+      <c r="Q52" t="n">
+        <v>83039</v>
+      </c>
+      <c r="R52" t="n">
+        <v>8006172</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -4204,7 +4012,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -4236,7 +4044,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -4245,15 +4053,11 @@
 </t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>68471</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>3491463</t>
-        </is>
+      <c r="Q53" t="n">
+        <v>68471</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3491463</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -4269,7 +4073,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4303,7 +4107,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -4312,15 +4116,11 @@
 </t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>89747</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>897471</t>
-        </is>
+      <c r="Q54" t="n">
+        <v>89747</v>
+      </c>
+      <c r="R54" t="n">
+        <v>897471</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -4336,7 +4136,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4368,7 +4168,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -4377,15 +4177,11 @@
 </t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>23692</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>3571777</t>
-        </is>
+      <c r="Q55" t="n">
+        <v>23692</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3571777</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -4401,7 +4197,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Terreno </t>
+          <t>Terreno</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4429,7 +4225,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -4438,15 +4234,11 @@
 </t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>52506</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>2218348</t>
-        </is>
+      <c r="Q56" t="n">
+        <v>52506</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2218348</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -4462,7 +4254,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4494,7 +4286,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -4503,15 +4295,11 @@
 </t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>59634</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>2655136</t>
-        </is>
+      <c r="Q57" t="n">
+        <v>59634</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2655136</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -4527,7 +4315,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -4559,7 +4347,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -4568,15 +4356,11 @@
 </t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>85120</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>8220557</t>
-        </is>
+      <c r="Q58" t="n">
+        <v>85120</v>
+      </c>
+      <c r="R58" t="n">
+        <v>8220557</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -4592,7 +4376,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -4624,7 +4408,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -4633,15 +4417,11 @@
 </t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>69563</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>6131891</t>
-        </is>
+      <c r="Q59" t="n">
+        <v>69563</v>
+      </c>
+      <c r="R59" t="n">
+        <v>6131891</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -4657,7 +4437,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -4691,7 +4471,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -4700,15 +4480,11 @@
 </t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>86572</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>5429609</t>
-        </is>
+      <c r="Q60" t="n">
+        <v>86572</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5429609</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -4724,7 +4500,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -4756,7 +4532,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -4765,15 +4541,11 @@
 </t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>1387</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>169692</t>
-        </is>
+      <c r="Q61" t="n">
+        <v>1387</v>
+      </c>
+      <c r="R61" t="n">
+        <v>169692</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -4789,7 +4561,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4827,7 +4599,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>VendaOnlineCaixa</t>
+          <t>Venda Online Caixa</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -4836,15 +4608,11 @@
 </t>
         </is>
       </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>43150</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>7351054</t>
-        </is>
+      <c r="Q62" t="n">
+        <v>43150</v>
+      </c>
+      <c r="R62" t="n">
+        <v>7351054</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -4860,7 +4628,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -4894,7 +4662,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -4903,15 +4671,11 @@
 </t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>79673</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>7334192</t>
-        </is>
+      <c r="Q63" t="n">
+        <v>79673</v>
+      </c>
+      <c r="R63" t="n">
+        <v>7334192</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -4927,7 +4691,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -4955,7 +4719,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -4964,15 +4728,11 @@
 </t>
         </is>
       </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>18045</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>637637</t>
-        </is>
+      <c r="Q64" t="n">
+        <v>18045</v>
+      </c>
+      <c r="R64" t="n">
+        <v>637637</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -4988,7 +4748,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -5018,7 +4778,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -5027,15 +4787,11 @@
 </t>
         </is>
       </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>85569</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>8255695</t>
-        </is>
+      <c r="Q65" t="n">
+        <v>85569</v>
+      </c>
+      <c r="R65" t="n">
+        <v>8255695</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -5051,7 +4807,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -5081,7 +4837,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P66" t="inlineStr"/>
@@ -5103,7 +4859,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -5133,7 +4889,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P67" t="inlineStr"/>
@@ -5155,7 +4911,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -5197,7 +4953,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -5205,15 +4961,11 @@
           <t xml:space="preserve"> ARG Leilões </t>
         </is>
       </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>16964</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>6058124</t>
-        </is>
+      <c r="Q68" t="n">
+        <v>16964</v>
+      </c>
+      <c r="R68" t="n">
+        <v>6058124</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -5229,7 +4981,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Terreno </t>
+          <t>Terreno</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -5267,7 +5019,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -5275,15 +5027,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>23782</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>5669774</t>
-        </is>
+      <c r="Q69" t="n">
+        <v>23782</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5669774</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -5299,7 +5047,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Terreno </t>
+          <t>Terreno</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -5337,7 +5085,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -5345,15 +5093,11 @@
           <t xml:space="preserve"> Leilão Caixa </t>
         </is>
       </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>77199</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>6658598</t>
-        </is>
+      <c r="Q70" t="n">
+        <v>77199</v>
+      </c>
+      <c r="R70" t="n">
+        <v>6658598</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -5369,7 +5113,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -5403,7 +5147,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -5412,15 +5156,11 @@
 </t>
         </is>
       </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>86011</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>8257833</t>
-        </is>
+      <c r="Q71" t="n">
+        <v>86011</v>
+      </c>
+      <c r="R71" t="n">
+        <v>8257833</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -5436,7 +5176,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -5468,7 +5208,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -5477,15 +5217,11 @@
 </t>
         </is>
       </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>58408</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>2159953</t>
-        </is>
+      <c r="Q72" t="n">
+        <v>58408</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2159953</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -5501,7 +5237,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5533,7 +5269,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -5542,15 +5278,11 @@
 </t>
         </is>
       </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>55068</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>1133373</t>
-        </is>
+      <c r="Q73" t="n">
+        <v>55068</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1133373</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -5566,7 +5298,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -5596,7 +5328,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -5605,15 +5337,11 @@
 </t>
         </is>
       </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>032714</t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>6090435</t>
-        </is>
+      <c r="Q74" t="n">
+        <v>32714</v>
+      </c>
+      <c r="R74" t="n">
+        <v>6090435</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -5629,7 +5357,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5663,7 +5391,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -5672,15 +5400,11 @@
 </t>
         </is>
       </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>32589</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>3995291</t>
-        </is>
+      <c r="Q75" t="n">
+        <v>32589</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3995291</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -5696,7 +5420,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5728,7 +5452,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -5737,15 +5461,11 @@
 </t>
         </is>
       </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>84683</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>8258520</t>
-        </is>
+      <c r="Q76" t="n">
+        <v>84683</v>
+      </c>
+      <c r="R76" t="n">
+        <v>8258520</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -5761,7 +5481,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5793,7 +5513,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -5802,15 +5522,11 @@
 </t>
         </is>
       </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>84676</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>8099049</t>
-        </is>
+      <c r="Q77" t="n">
+        <v>84676</v>
+      </c>
+      <c r="R77" t="n">
+        <v>8099049</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -5826,7 +5542,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -5858,7 +5574,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -5867,15 +5583,11 @@
 </t>
         </is>
       </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>84279</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>8241279</t>
-        </is>
+      <c r="Q78" t="n">
+        <v>84279</v>
+      </c>
+      <c r="R78" t="n">
+        <v>8241279</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -5891,7 +5603,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -5923,7 +5635,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -5932,15 +5644,11 @@
 </t>
         </is>
       </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>50097</t>
-        </is>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>8251894</t>
-        </is>
+      <c r="Q79" t="n">
+        <v>50097</v>
+      </c>
+      <c r="R79" t="n">
+        <v>8251894</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -5956,7 +5664,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -5996,7 +5704,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>VendaOnlineCaixa</t>
+          <t>Venda Online Caixa</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -6005,15 +5713,11 @@
 </t>
         </is>
       </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>87392</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>8420750</t>
-        </is>
+      <c r="Q80" t="n">
+        <v>87392</v>
+      </c>
+      <c r="R80" t="n">
+        <v>8420750</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -6029,7 +5733,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -6061,7 +5765,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -6070,10 +5774,8 @@
 </t>
         </is>
       </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>60142</t>
-        </is>
+      <c r="Q81" t="n">
+        <v>60142</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -6092,7 +5794,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -6130,7 +5832,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>VendaOnlineCaixa</t>
+          <t>Venda Online Caixa</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -6139,10 +5841,8 @@
 </t>
         </is>
       </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>23872</t>
-        </is>
+      <c r="Q82" t="n">
+        <v>23872</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -6161,7 +5861,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -6195,7 +5895,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -6204,15 +5904,11 @@
 </t>
         </is>
       </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>039642</t>
-        </is>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>2911604</t>
-        </is>
+      <c r="Q83" t="n">
+        <v>39642</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2911604</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -6228,7 +5924,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -6262,7 +5958,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -6271,15 +5967,11 @@
 </t>
         </is>
       </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>80450</t>
-        </is>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>3852580</t>
-        </is>
+      <c r="Q84" t="n">
+        <v>80450</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3852580</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -6295,7 +5987,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -6327,7 +6019,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -6336,15 +6028,11 @@
 </t>
         </is>
       </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>86593</t>
-        </is>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>8376360</t>
-        </is>
+      <c r="Q85" t="n">
+        <v>86593</v>
+      </c>
+      <c r="R85" t="n">
+        <v>8376360</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -6360,7 +6048,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -6386,7 +6074,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P86" t="inlineStr"/>
@@ -6408,7 +6096,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6434,7 +6122,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P87" t="inlineStr"/>
@@ -6456,7 +6144,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -6482,7 +6170,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P88" t="inlineStr"/>
@@ -6504,7 +6192,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -6530,7 +6218,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P89" t="inlineStr"/>
@@ -6552,7 +6240,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -6578,7 +6266,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P90" t="inlineStr"/>
@@ -6600,7 +6288,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -6626,7 +6314,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P91" t="inlineStr"/>
@@ -6648,7 +6336,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -6674,7 +6362,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P92" t="inlineStr"/>
@@ -6696,7 +6384,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -6722,7 +6410,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P93" t="inlineStr"/>
@@ -6744,7 +6432,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -6770,7 +6458,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P94" t="inlineStr"/>
@@ -6792,7 +6480,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -6818,7 +6506,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P95" t="inlineStr"/>
@@ -6840,7 +6528,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -6866,7 +6554,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P96" t="inlineStr"/>
@@ -6888,7 +6576,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -6914,7 +6602,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P97" t="inlineStr"/>
@@ -6936,7 +6624,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -6962,7 +6650,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P98" t="inlineStr"/>
@@ -6984,7 +6672,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -7010,7 +6698,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P99" t="inlineStr"/>
@@ -7032,7 +6720,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -7058,7 +6746,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P100" t="inlineStr"/>
@@ -7080,7 +6768,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -7106,7 +6794,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P101" t="inlineStr"/>
@@ -7128,7 +6816,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -7154,7 +6842,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P102" t="inlineStr"/>
@@ -7176,7 +6864,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -7206,7 +6894,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
@@ -7215,15 +6903,11 @@
 </t>
         </is>
       </c>
-      <c r="Q103" t="inlineStr">
-        <is>
-          <t>37337</t>
-        </is>
-      </c>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>6690033</t>
-        </is>
+      <c r="Q103" t="n">
+        <v>37337</v>
+      </c>
+      <c r="R103" t="n">
+        <v>6690033</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -7239,7 +6923,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -7271,7 +6955,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
@@ -7280,15 +6964,11 @@
 </t>
         </is>
       </c>
-      <c r="Q104" t="inlineStr">
-        <is>
-          <t>61920</t>
-        </is>
-      </c>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>8566828</t>
-        </is>
+      <c r="Q104" t="n">
+        <v>61920</v>
+      </c>
+      <c r="R104" t="n">
+        <v>8566828</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -7304,7 +6984,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -7334,7 +7014,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
@@ -7343,15 +7023,11 @@
 </t>
         </is>
       </c>
-      <c r="Q105" t="inlineStr">
-        <is>
-          <t>94439</t>
-        </is>
-      </c>
-      <c r="R105" t="inlineStr">
-        <is>
-          <t>9072683</t>
-        </is>
+      <c r="Q105" t="n">
+        <v>94439</v>
+      </c>
+      <c r="R105" t="n">
+        <v>9072683</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -7367,7 +7043,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -7397,7 +7073,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P106" t="inlineStr"/>
@@ -7419,7 +7095,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -7449,7 +7125,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P107" t="inlineStr"/>
@@ -7471,7 +7147,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -7533,7 +7209,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -7589,7 +7265,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Galpão </t>
+          <t>Galpão</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -7647,7 +7323,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Galpão </t>
+          <t>Galpão</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -7705,7 +7381,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -7767,7 +7443,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -7801,7 +7477,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P113" t="inlineStr">
@@ -7809,15 +7485,11 @@
           <t xml:space="preserve"> Leilões Brasil </t>
         </is>
       </c>
-      <c r="Q113" t="inlineStr">
-        <is>
-          <t>45073</t>
-        </is>
-      </c>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q113" t="n">
+        <v>45073</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -7833,7 +7505,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -7891,7 +7563,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -7927,7 +7599,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
@@ -7935,15 +7607,11 @@
           <t xml:space="preserve"> Nakakogue Leilões </t>
         </is>
       </c>
-      <c r="Q115" t="inlineStr">
-        <is>
-          <t>11653</t>
-        </is>
-      </c>
-      <c r="R115" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q115" t="n">
+        <v>11653</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -7959,7 +7627,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -8019,7 +7687,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -8081,7 +7749,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -8143,7 +7811,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -8201,7 +7869,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -8243,7 +7911,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
@@ -8251,15 +7919,11 @@
           <t xml:space="preserve"> ARG Leilões </t>
         </is>
       </c>
-      <c r="Q120" t="inlineStr">
-        <is>
-          <t>84355</t>
-        </is>
-      </c>
-      <c r="R120" t="inlineStr">
-        <is>
-          <t>7296401</t>
-        </is>
+      <c r="Q120" t="n">
+        <v>84355</v>
+      </c>
+      <c r="R120" t="n">
+        <v>7296401</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -8275,7 +7939,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -8315,7 +7979,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
@@ -8323,15 +7987,11 @@
           <t xml:space="preserve"> ARG Leilões </t>
         </is>
       </c>
-      <c r="Q121" t="inlineStr">
-        <is>
-          <t>40132</t>
-        </is>
-      </c>
-      <c r="R121" t="inlineStr">
-        <is>
-          <t>7350864</t>
-        </is>
+      <c r="Q121" t="n">
+        <v>40132</v>
+      </c>
+      <c r="R121" t="n">
+        <v>7350864</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -8347,7 +8007,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -8389,7 +8049,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
@@ -8397,15 +8057,11 @@
           <t xml:space="preserve"> ARG Leilões </t>
         </is>
       </c>
-      <c r="Q122" t="inlineStr">
-        <is>
-          <t>1028</t>
-        </is>
-      </c>
-      <c r="R122" t="inlineStr">
-        <is>
-          <t>4953819</t>
-        </is>
+      <c r="Q122" t="n">
+        <v>1028</v>
+      </c>
+      <c r="R122" t="n">
+        <v>4953819</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -8421,7 +8077,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Outros </t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -8473,7 +8129,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -8535,7 +8191,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -8573,7 +8229,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
@@ -8581,15 +8237,11 @@
           <t xml:space="preserve"> O Leilões </t>
         </is>
       </c>
-      <c r="Q125" t="inlineStr">
-        <is>
-          <t>82242</t>
-        </is>
-      </c>
-      <c r="R125" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q125" t="n">
+        <v>82242</v>
+      </c>
+      <c r="R125" t="n">
+        <v>0</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
@@ -8605,7 +8257,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -8647,7 +8299,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
@@ -8655,15 +8307,11 @@
           <t xml:space="preserve"> O Leilões </t>
         </is>
       </c>
-      <c r="Q126" t="inlineStr">
-        <is>
-          <t>85469</t>
-        </is>
-      </c>
-      <c r="R126" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q126" t="n">
+        <v>85469</v>
+      </c>
+      <c r="R126" t="n">
+        <v>0</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -8679,7 +8327,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -8719,7 +8367,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
@@ -8727,15 +8375,11 @@
           <t xml:space="preserve"> O Leilões </t>
         </is>
       </c>
-      <c r="Q127" t="inlineStr">
-        <is>
-          <t>17036</t>
-        </is>
-      </c>
-      <c r="R127" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q127" t="n">
+        <v>17036</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -8751,7 +8395,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -8791,7 +8435,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
@@ -8799,15 +8443,11 @@
           <t xml:space="preserve"> O Leilões </t>
         </is>
       </c>
-      <c r="Q128" t="inlineStr">
-        <is>
-          <t>55400</t>
-        </is>
-      </c>
-      <c r="R128" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q128" t="n">
+        <v>55400</v>
+      </c>
+      <c r="R128" t="n">
+        <v>0</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -8823,7 +8463,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -8885,7 +8525,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -8947,7 +8587,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -8989,7 +8629,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
@@ -8997,15 +8637,11 @@
           <t xml:space="preserve"> GP Leilões </t>
         </is>
       </c>
-      <c r="Q131" t="inlineStr">
-        <is>
-          <t>79828</t>
-        </is>
-      </c>
-      <c r="R131" t="inlineStr">
-        <is>
-          <t>7183330</t>
-        </is>
+      <c r="Q131" t="n">
+        <v>79828</v>
+      </c>
+      <c r="R131" t="n">
+        <v>7183330</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -9021,7 +8657,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -9057,7 +8693,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
@@ -9065,15 +8701,11 @@
           <t xml:space="preserve"> WR Leilões </t>
         </is>
       </c>
-      <c r="Q132" t="inlineStr">
-        <is>
-          <t>10345</t>
-        </is>
-      </c>
-      <c r="R132" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q132" t="n">
+        <v>10345</v>
+      </c>
+      <c r="R132" t="n">
+        <v>0</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -9089,7 +8721,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -9151,7 +8783,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -9193,7 +8825,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
@@ -9201,15 +8833,11 @@
           <t xml:space="preserve"> Globo Leilões </t>
         </is>
       </c>
-      <c r="Q134" t="inlineStr">
-        <is>
-          <t>84434</t>
-        </is>
-      </c>
-      <c r="R134" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q134" t="n">
+        <v>84434</v>
+      </c>
+      <c r="R134" t="n">
+        <v>0</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -9225,7 +8853,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -9267,7 +8895,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
@@ -9275,15 +8903,11 @@
           <t xml:space="preserve"> Globo Leilões </t>
         </is>
       </c>
-      <c r="Q135" t="inlineStr">
-        <is>
-          <t>87407</t>
-        </is>
-      </c>
-      <c r="R135" t="inlineStr">
-        <is>
-          <t>4266218</t>
-        </is>
+      <c r="Q135" t="n">
+        <v>87407</v>
+      </c>
+      <c r="R135" t="n">
+        <v>4266218</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -9299,7 +8923,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -9365,7 +8989,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -9427,7 +9051,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -9461,7 +9085,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
@@ -9469,15 +9093,11 @@
           <t xml:space="preserve"> Leilões Ceruli </t>
         </is>
       </c>
-      <c r="Q138" t="inlineStr">
-        <is>
-          <t>79452</t>
-        </is>
-      </c>
-      <c r="R138" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q138" t="n">
+        <v>79452</v>
+      </c>
+      <c r="R138" t="n">
+        <v>0</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -9493,7 +9113,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -9527,7 +9147,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
@@ -9535,15 +9155,11 @@
           <t xml:space="preserve"> Leilões Ceruli </t>
         </is>
       </c>
-      <c r="Q139" t="inlineStr">
-        <is>
-          <t>79452</t>
-        </is>
-      </c>
-      <c r="R139" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q139" t="n">
+        <v>79452</v>
+      </c>
+      <c r="R139" t="n">
+        <v>0</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -9559,7 +9175,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -9593,7 +9209,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P140" t="inlineStr">
@@ -9601,15 +9217,11 @@
           <t xml:space="preserve"> Isaias Leilões </t>
         </is>
       </c>
-      <c r="Q140" t="inlineStr">
-        <is>
-          <t>88498</t>
-        </is>
-      </c>
-      <c r="R140" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q140" t="n">
+        <v>88498</v>
+      </c>
+      <c r="R140" t="n">
+        <v>0</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -9625,7 +9237,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -9659,7 +9271,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P141" t="inlineStr">
@@ -9667,15 +9279,11 @@
           <t xml:space="preserve"> Isaias Leilões </t>
         </is>
       </c>
-      <c r="Q141" t="inlineStr">
-        <is>
-          <t>88498</t>
-        </is>
-      </c>
-      <c r="R141" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q141" t="n">
+        <v>88498</v>
+      </c>
+      <c r="R141" t="n">
+        <v>0</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -9691,7 +9299,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -9749,7 +9357,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -9807,7 +9415,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -9867,7 +9475,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -9931,7 +9539,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -9987,7 +9595,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -10043,7 +9651,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -10077,7 +9685,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>VendaDiretaCaixa</t>
+          <t>Venda Direta Caixa</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -10086,15 +9694,11 @@
 </t>
         </is>
       </c>
-      <c r="Q148" t="inlineStr">
-        <is>
-          <t>86906</t>
-        </is>
-      </c>
-      <c r="R148" t="inlineStr">
-        <is>
-          <t>8250537</t>
-        </is>
+      <c r="Q148" t="n">
+        <v>86906</v>
+      </c>
+      <c r="R148" t="n">
+        <v>8250537</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -10110,7 +9714,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -10166,7 +9770,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -10226,7 +9830,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -10286,7 +9890,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Outros </t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -10344,7 +9948,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -10400,7 +10004,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -10462,7 +10066,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -10520,7 +10124,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -10578,7 +10182,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Terreno </t>
+          <t>Terreno</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -10610,7 +10214,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P157" t="inlineStr">
@@ -10618,15 +10222,11 @@
           <t xml:space="preserve"> Nakakogue Leilões </t>
         </is>
       </c>
-      <c r="Q157" t="inlineStr">
-        <is>
-          <t>86799</t>
-        </is>
-      </c>
-      <c r="R157" t="inlineStr">
-        <is>
-          <t>6297986</t>
-        </is>
+      <c r="Q157" t="n">
+        <v>86799</v>
+      </c>
+      <c r="R157" t="n">
+        <v>6297986</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
@@ -10642,7 +10242,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -10698,7 +10298,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -10762,7 +10362,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -10820,7 +10420,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -10880,7 +10480,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -10938,7 +10538,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Terreno </t>
+          <t>Terreno</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -10974,7 +10574,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P163" t="inlineStr">
@@ -10982,15 +10582,11 @@
           <t xml:space="preserve"> Central Sul de Leilões </t>
         </is>
       </c>
-      <c r="Q163" t="inlineStr">
-        <is>
-          <t>60324</t>
-        </is>
-      </c>
-      <c r="R163" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q163" t="n">
+        <v>60324</v>
+      </c>
+      <c r="R163" t="n">
+        <v>0</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -11006,7 +10602,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -11048,7 +10644,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P164" t="inlineStr">
@@ -11056,15 +10652,11 @@
           <t xml:space="preserve"> ARG Leilões </t>
         </is>
       </c>
-      <c r="Q164" t="inlineStr">
-        <is>
-          <t>27797</t>
-        </is>
-      </c>
-      <c r="R164" t="inlineStr">
-        <is>
-          <t>6960839</t>
-        </is>
+      <c r="Q164" t="n">
+        <v>27797</v>
+      </c>
+      <c r="R164" t="n">
+        <v>6960839</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -11080,7 +10672,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -11136,7 +10728,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -11178,7 +10770,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
@@ -11186,15 +10778,11 @@
           <t xml:space="preserve"> O Leilões </t>
         </is>
       </c>
-      <c r="Q166" t="inlineStr">
-        <is>
-          <t>60113</t>
-        </is>
-      </c>
-      <c r="R166" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q166" t="n">
+        <v>60113</v>
+      </c>
+      <c r="R166" t="n">
+        <v>0</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -11210,7 +10798,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -11252,7 +10840,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
@@ -11260,15 +10848,11 @@
           <t xml:space="preserve"> O Leilões </t>
         </is>
       </c>
-      <c r="Q167" t="inlineStr">
-        <is>
-          <t>43243</t>
-        </is>
-      </c>
-      <c r="R167" t="inlineStr">
-        <is>
-          <t>3460908</t>
-        </is>
+      <c r="Q167" t="n">
+        <v>43243</v>
+      </c>
+      <c r="R167" t="n">
+        <v>3460908</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
@@ -11284,7 +10868,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -11322,7 +10906,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
@@ -11330,15 +10914,11 @@
           <t xml:space="preserve"> O Leilões </t>
         </is>
       </c>
-      <c r="Q168" t="inlineStr">
-        <is>
-          <t>29050</t>
-        </is>
-      </c>
-      <c r="R168" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q168" t="n">
+        <v>29050</v>
+      </c>
+      <c r="R168" t="n">
+        <v>0</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
@@ -11354,7 +10934,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -11414,7 +10994,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -11472,7 +11052,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -11528,7 +11108,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -11586,7 +11166,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Terreno </t>
+          <t>Terreno</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -11644,7 +11224,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -11686,7 +11266,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P174" t="inlineStr">
@@ -11694,15 +11274,11 @@
           <t xml:space="preserve"> GP Leilões </t>
         </is>
       </c>
-      <c r="Q174" t="inlineStr">
-        <is>
-          <t>87857</t>
-        </is>
-      </c>
-      <c r="R174" t="inlineStr">
-        <is>
-          <t>7226489</t>
-        </is>
+      <c r="Q174" t="n">
+        <v>87857</v>
+      </c>
+      <c r="R174" t="n">
+        <v>7226489</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -11718,7 +11294,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -11760,7 +11336,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P175" t="inlineStr">
@@ -11768,15 +11344,11 @@
           <t xml:space="preserve"> GP Leilões </t>
         </is>
       </c>
-      <c r="Q175" t="inlineStr">
-        <is>
-          <t>4389</t>
-        </is>
-      </c>
-      <c r="R175" t="inlineStr">
-        <is>
-          <t>5026709</t>
-        </is>
+      <c r="Q175" t="n">
+        <v>4389</v>
+      </c>
+      <c r="R175" t="n">
+        <v>5026709</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -11792,7 +11364,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Terreno </t>
+          <t>Terreno</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -11836,15 +11408,11 @@
           <t xml:space="preserve"> Leilão Vip </t>
         </is>
       </c>
-      <c r="Q176" t="inlineStr">
-        <is>
-          <t>19303</t>
-        </is>
-      </c>
-      <c r="R176" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q176" t="n">
+        <v>19303</v>
+      </c>
+      <c r="R176" t="n">
+        <v>0</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
@@ -11860,7 +11428,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -11902,7 +11470,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
@@ -11910,15 +11478,11 @@
           <t xml:space="preserve"> Globo Leilões </t>
         </is>
       </c>
-      <c r="Q177" t="inlineStr">
-        <is>
-          <t>48452</t>
-        </is>
-      </c>
-      <c r="R177" t="inlineStr">
-        <is>
-          <t>4382927</t>
-        </is>
+      <c r="Q177" t="n">
+        <v>48452</v>
+      </c>
+      <c r="R177" t="n">
+        <v>4382927</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
@@ -11934,7 +11498,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -11976,7 +11540,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
@@ -11984,15 +11548,11 @@
           <t xml:space="preserve"> Globo Leilões </t>
         </is>
       </c>
-      <c r="Q178" t="inlineStr">
-        <is>
-          <t>81675</t>
-        </is>
-      </c>
-      <c r="R178" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q178" t="n">
+        <v>81675</v>
+      </c>
+      <c r="R178" t="n">
+        <v>0</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
@@ -12008,7 +11568,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -12048,7 +11608,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P179" t="inlineStr">
@@ -12056,15 +11616,11 @@
           <t xml:space="preserve"> Globo Leilões </t>
         </is>
       </c>
-      <c r="Q179" t="inlineStr">
-        <is>
-          <t>82586</t>
-        </is>
-      </c>
-      <c r="R179" t="inlineStr">
-        <is>
-          <t>8095213</t>
-        </is>
+      <c r="Q179" t="n">
+        <v>82586</v>
+      </c>
+      <c r="R179" t="n">
+        <v>8095213</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
@@ -12080,7 +11636,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Outros </t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -12138,7 +11694,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -12172,7 +11728,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P181" t="inlineStr">
@@ -12180,15 +11736,11 @@
           <t xml:space="preserve"> Leilões Ceruli </t>
         </is>
       </c>
-      <c r="Q181" t="inlineStr">
-        <is>
-          <t>85074</t>
-        </is>
-      </c>
-      <c r="R181" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q181" t="n">
+        <v>85074</v>
+      </c>
+      <c r="R181" t="n">
+        <v>0</v>
       </c>
       <c r="S181" t="inlineStr">
         <is>
@@ -12204,7 +11756,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -12238,7 +11790,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P182" t="inlineStr">
@@ -12246,15 +11798,11 @@
           <t xml:space="preserve"> Leilões Ceruli </t>
         </is>
       </c>
-      <c r="Q182" t="inlineStr">
-        <is>
-          <t>64917</t>
-        </is>
-      </c>
-      <c r="R182" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q182" t="n">
+        <v>64917</v>
+      </c>
+      <c r="R182" t="n">
+        <v>0</v>
       </c>
       <c r="S182" t="inlineStr">
         <is>
@@ -12270,7 +11818,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -12306,7 +11854,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P183" t="inlineStr">
@@ -12314,15 +11862,11 @@
           <t xml:space="preserve"> Leilões Ceruli </t>
         </is>
       </c>
-      <c r="Q183" t="inlineStr">
-        <is>
-          <t>61866</t>
-        </is>
-      </c>
-      <c r="R183" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q183" t="n">
+        <v>61866</v>
+      </c>
+      <c r="R183" t="n">
+        <v>0</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
@@ -12338,7 +11882,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -12372,7 +11916,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P184" t="inlineStr">
@@ -12380,15 +11924,11 @@
           <t xml:space="preserve"> Leilões Ceruli </t>
         </is>
       </c>
-      <c r="Q184" t="inlineStr">
-        <is>
-          <t>15554</t>
-        </is>
-      </c>
-      <c r="R184" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q184" t="n">
+        <v>15554</v>
+      </c>
+      <c r="R184" t="n">
+        <v>0</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
@@ -12404,7 +11944,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -12438,7 +11978,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
@@ -12446,15 +11986,11 @@
           <t xml:space="preserve"> Leilões Ceruli </t>
         </is>
       </c>
-      <c r="Q185" t="inlineStr">
-        <is>
-          <t>85074</t>
-        </is>
-      </c>
-      <c r="R185" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q185" t="n">
+        <v>85074</v>
+      </c>
+      <c r="R185" t="n">
+        <v>0</v>
       </c>
       <c r="S185" t="inlineStr">
         <is>
@@ -12470,7 +12006,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -12506,7 +12042,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P186" t="inlineStr">
@@ -12514,15 +12050,11 @@
           <t xml:space="preserve"> Leilões Ceruli </t>
         </is>
       </c>
-      <c r="Q186" t="inlineStr">
-        <is>
-          <t>64917</t>
-        </is>
-      </c>
-      <c r="R186" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q186" t="n">
+        <v>64917</v>
+      </c>
+      <c r="R186" t="n">
+        <v>0</v>
       </c>
       <c r="S186" t="inlineStr">
         <is>
@@ -12538,7 +12070,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -12574,7 +12106,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P187" t="inlineStr">
@@ -12582,15 +12114,11 @@
           <t xml:space="preserve"> Leilões Ceruli </t>
         </is>
       </c>
-      <c r="Q187" t="inlineStr">
-        <is>
-          <t>61866</t>
-        </is>
-      </c>
-      <c r="R187" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q187" t="n">
+        <v>61866</v>
+      </c>
+      <c r="R187" t="n">
+        <v>0</v>
       </c>
       <c r="S187" t="inlineStr">
         <is>
@@ -12606,7 +12134,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -12640,7 +12168,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
@@ -12648,15 +12176,11 @@
           <t xml:space="preserve"> Leilões Ceruli </t>
         </is>
       </c>
-      <c r="Q188" t="inlineStr">
-        <is>
-          <t>15554</t>
-        </is>
-      </c>
-      <c r="R188" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q188" t="n">
+        <v>15554</v>
+      </c>
+      <c r="R188" t="n">
+        <v>0</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
@@ -12672,7 +12196,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Outros </t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -12704,7 +12228,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
@@ -12712,15 +12236,11 @@
           <t xml:space="preserve"> Isaias Leilões </t>
         </is>
       </c>
-      <c r="Q189" t="inlineStr">
-        <is>
-          <t>88939</t>
-        </is>
-      </c>
-      <c r="R189" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q189" t="n">
+        <v>88939</v>
+      </c>
+      <c r="R189" t="n">
+        <v>0</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
@@ -12736,7 +12256,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -12768,7 +12288,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
@@ -12776,15 +12296,11 @@
           <t xml:space="preserve"> Isaias Leilões </t>
         </is>
       </c>
-      <c r="Q190" t="inlineStr">
-        <is>
-          <t>86354</t>
-        </is>
-      </c>
-      <c r="R190" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q190" t="n">
+        <v>86354</v>
+      </c>
+      <c r="R190" t="n">
+        <v>0</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
@@ -12800,7 +12316,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -12832,7 +12348,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
@@ -12840,15 +12356,11 @@
           <t xml:space="preserve"> Isaias Leilões </t>
         </is>
       </c>
-      <c r="Q191" t="inlineStr">
-        <is>
-          <t>86354</t>
-        </is>
-      </c>
-      <c r="R191" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q191" t="n">
+        <v>86354</v>
+      </c>
+      <c r="R191" t="n">
+        <v>0</v>
       </c>
       <c r="S191" t="inlineStr">
         <is>
@@ -12864,7 +12376,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Outros </t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -12896,7 +12408,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
@@ -12904,15 +12416,11 @@
           <t xml:space="preserve"> Isaias Leilões </t>
         </is>
       </c>
-      <c r="Q192" t="inlineStr">
-        <is>
-          <t>88939</t>
-        </is>
-      </c>
-      <c r="R192" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q192" t="n">
+        <v>88939</v>
+      </c>
+      <c r="R192" t="n">
+        <v>0</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
@@ -12928,7 +12436,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -12986,7 +12494,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Outros </t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -13046,7 +12554,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Terreno </t>
+          <t>Terreno</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -13104,7 +12612,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -13168,7 +12676,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -13230,7 +12738,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -13286,7 +12794,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -13342,7 +12850,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -13370,7 +12878,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P200" t="inlineStr"/>
@@ -13392,7 +12900,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -13420,7 +12928,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P201" t="inlineStr"/>
@@ -13442,7 +12950,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -13470,7 +12978,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P202" t="inlineStr"/>
@@ -13492,7 +13000,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -13520,7 +13028,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P203" t="inlineStr"/>
@@ -13542,7 +13050,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -13570,7 +13078,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P204" t="inlineStr"/>
@@ -13592,7 +13100,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -13620,7 +13128,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P205" t="inlineStr"/>
@@ -13642,7 +13150,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -13670,7 +13178,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P206" t="inlineStr"/>
@@ -13692,7 +13200,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -13720,7 +13228,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P207" t="inlineStr"/>
@@ -13742,7 +13250,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -13770,7 +13278,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P208" t="inlineStr"/>
@@ -13792,7 +13300,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -13820,7 +13328,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P209" t="inlineStr"/>
@@ -13842,7 +13350,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -13870,7 +13378,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P210" t="inlineStr"/>
@@ -13892,7 +13400,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -13920,7 +13428,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P211" t="inlineStr"/>
@@ -13942,7 +13450,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -13970,7 +13478,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P212" t="inlineStr"/>
@@ -13992,7 +13500,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -14020,7 +13528,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P213" t="inlineStr"/>
@@ -14042,7 +13550,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -14070,7 +13578,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P214" t="inlineStr"/>
@@ -14092,7 +13600,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -14120,7 +13628,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P215" t="inlineStr"/>
@@ -14142,7 +13650,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -14170,7 +13678,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P216" t="inlineStr"/>
@@ -14192,7 +13700,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -14220,7 +13728,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P217" t="inlineStr"/>
@@ -14242,7 +13750,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -14270,7 +13778,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P218" t="inlineStr"/>
@@ -14292,7 +13800,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -14320,7 +13828,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P219" t="inlineStr"/>
@@ -14342,7 +13850,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -14370,7 +13878,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P220" t="inlineStr"/>
@@ -14392,7 +13900,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -14420,7 +13928,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P221" t="inlineStr"/>
@@ -14442,7 +13950,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -14470,7 +13978,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P222" t="inlineStr"/>
@@ -14492,7 +14000,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -14520,7 +14028,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P223" t="inlineStr"/>
@@ -14542,7 +14050,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -14570,7 +14078,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P224" t="inlineStr"/>
@@ -14592,7 +14100,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -14620,7 +14128,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P225" t="inlineStr"/>
@@ -14642,7 +14150,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -14670,7 +14178,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P226" t="inlineStr"/>
@@ -14692,7 +14200,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -14720,7 +14228,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P227" t="inlineStr"/>
@@ -14742,7 +14250,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -14770,7 +14278,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P228" t="inlineStr"/>
@@ -14792,7 +14300,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -14820,7 +14328,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P229" t="inlineStr"/>
@@ -14842,7 +14350,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -14870,7 +14378,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P230" t="inlineStr"/>
@@ -14892,7 +14400,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -14920,7 +14428,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P231" t="inlineStr"/>
@@ -14942,7 +14450,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -14970,7 +14478,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P232" t="inlineStr"/>
@@ -14992,7 +14500,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Garagem </t>
+          <t>Garagem</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -15020,7 +14528,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P233" t="inlineStr"/>
@@ -15042,7 +14550,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -15102,7 +14610,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B235" t="inlineStr"/>
@@ -15130,7 +14638,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P235" t="inlineStr">
@@ -15138,15 +14646,11 @@
           <t xml:space="preserve"> Leilões Centro Oeste </t>
         </is>
       </c>
-      <c r="Q235" t="inlineStr">
-        <is>
-          <t>86130</t>
-        </is>
-      </c>
-      <c r="R235" t="inlineStr">
-        <is>
-          <t>8349843</t>
-        </is>
+      <c r="Q235" t="n">
+        <v>86130</v>
+      </c>
+      <c r="R235" t="n">
+        <v>8349843</v>
       </c>
       <c r="S235" t="inlineStr">
         <is>
@@ -15162,7 +14666,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Terreno </t>
+          <t>Terreno</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -15198,7 +14702,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P236" t="inlineStr">
@@ -15206,15 +14710,11 @@
           <t xml:space="preserve"> Central Sul de Leilões </t>
         </is>
       </c>
-      <c r="Q236" t="inlineStr">
-        <is>
-          <t>60324</t>
-        </is>
-      </c>
-      <c r="R236" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q236" t="n">
+        <v>60324</v>
+      </c>
+      <c r="R236" t="n">
+        <v>0</v>
       </c>
       <c r="S236" t="inlineStr">
         <is>
@@ -15230,7 +14730,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Outros </t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -15272,7 +14772,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P237" t="inlineStr">
@@ -15280,15 +14780,11 @@
           <t xml:space="preserve"> Casa Leiloeira </t>
         </is>
       </c>
-      <c r="Q237" t="inlineStr">
-        <is>
-          <t>81218</t>
-        </is>
-      </c>
-      <c r="R237" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q237" t="n">
+        <v>81218</v>
+      </c>
+      <c r="R237" t="n">
+        <v>0</v>
       </c>
       <c r="S237" t="inlineStr">
         <is>
@@ -15304,7 +14800,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B238" t="inlineStr"/>
@@ -15330,7 +14826,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P238" t="inlineStr">
@@ -15338,15 +14834,11 @@
           <t xml:space="preserve"> HD Leilões </t>
         </is>
       </c>
-      <c r="Q238" t="inlineStr">
-        <is>
-          <t>75963</t>
-        </is>
-      </c>
-      <c r="R238" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q238" t="n">
+        <v>75963</v>
+      </c>
+      <c r="R238" t="n">
+        <v>0</v>
       </c>
       <c r="S238" t="inlineStr">
         <is>
@@ -15362,7 +14854,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -15386,7 +14878,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P239" t="inlineStr">
@@ -15394,15 +14886,11 @@
           <t xml:space="preserve"> HD Leilões </t>
         </is>
       </c>
-      <c r="Q239" t="inlineStr">
-        <is>
-          <t>73380</t>
-        </is>
-      </c>
-      <c r="R239" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q239" t="n">
+        <v>73380</v>
+      </c>
+      <c r="R239" t="n">
+        <v>0</v>
       </c>
       <c r="S239" t="inlineStr">
         <is>
@@ -15418,7 +14906,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B240" t="inlineStr"/>
@@ -15444,7 +14932,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P240" t="inlineStr">
@@ -15452,15 +14940,11 @@
           <t xml:space="preserve"> HD Leilões </t>
         </is>
       </c>
-      <c r="Q240" t="inlineStr">
-        <is>
-          <t>82347</t>
-        </is>
-      </c>
-      <c r="R240" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q240" t="n">
+        <v>82347</v>
+      </c>
+      <c r="R240" t="n">
+        <v>0</v>
       </c>
       <c r="S240" t="inlineStr">
         <is>
@@ -15476,7 +14960,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -15522,15 +15006,11 @@
           <t xml:space="preserve"> Leilão Vip </t>
         </is>
       </c>
-      <c r="Q241" t="inlineStr">
-        <is>
-          <t>83737</t>
-        </is>
-      </c>
-      <c r="R241" t="inlineStr">
-        <is>
-          <t>6051057</t>
-        </is>
+      <c r="Q241" t="n">
+        <v>83737</v>
+      </c>
+      <c r="R241" t="n">
+        <v>6051057</v>
       </c>
       <c r="S241" t="inlineStr">
         <is>
@@ -15546,7 +15026,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -15580,7 +15060,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P242" t="inlineStr">
@@ -15588,15 +15068,11 @@
           <t xml:space="preserve"> Leilões Ceruli </t>
         </is>
       </c>
-      <c r="Q242" t="inlineStr">
-        <is>
-          <t>65750</t>
-        </is>
-      </c>
-      <c r="R242" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q242" t="n">
+        <v>65750</v>
+      </c>
+      <c r="R242" t="n">
+        <v>0</v>
       </c>
       <c r="S242" t="inlineStr">
         <is>
@@ -15612,7 +15088,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -15646,7 +15122,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P243" t="inlineStr">
@@ -15654,15 +15130,11 @@
           <t xml:space="preserve"> Leilões Ceruli </t>
         </is>
       </c>
-      <c r="Q243" t="inlineStr">
-        <is>
-          <t>65750</t>
-        </is>
-      </c>
-      <c r="R243" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q243" t="n">
+        <v>65750</v>
+      </c>
+      <c r="R243" t="n">
+        <v>0</v>
       </c>
       <c r="S243" t="inlineStr">
         <is>
@@ -15678,7 +15150,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Outros </t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -15710,7 +15182,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P244" t="inlineStr">
@@ -15718,15 +15190,11 @@
           <t xml:space="preserve"> Isaias Leilões </t>
         </is>
       </c>
-      <c r="Q244" t="inlineStr">
-        <is>
-          <t>82240</t>
-        </is>
-      </c>
-      <c r="R244" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q244" t="n">
+        <v>82240</v>
+      </c>
+      <c r="R244" t="n">
+        <v>0</v>
       </c>
       <c r="S244" t="inlineStr">
         <is>
@@ -15742,7 +15210,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Outros </t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -15774,7 +15242,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P245" t="inlineStr">
@@ -15782,15 +15250,11 @@
           <t xml:space="preserve"> Isaias Leilões </t>
         </is>
       </c>
-      <c r="Q245" t="inlineStr">
-        <is>
-          <t>82239</t>
-        </is>
-      </c>
-      <c r="R245" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q245" t="n">
+        <v>82239</v>
+      </c>
+      <c r="R245" t="n">
+        <v>0</v>
       </c>
       <c r="S245" t="inlineStr">
         <is>
@@ -15806,7 +15270,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Outros </t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -15838,7 +15302,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P246" t="inlineStr">
@@ -15846,15 +15310,11 @@
           <t xml:space="preserve"> Isaias Leilões </t>
         </is>
       </c>
-      <c r="Q246" t="inlineStr">
-        <is>
-          <t>3952</t>
-        </is>
-      </c>
-      <c r="R246" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q246" t="n">
+        <v>3952</v>
+      </c>
+      <c r="R246" t="n">
+        <v>0</v>
       </c>
       <c r="S246" t="inlineStr">
         <is>
@@ -15870,7 +15330,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Outros </t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -15902,7 +15362,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P247" t="inlineStr">
@@ -15910,15 +15370,11 @@
           <t xml:space="preserve"> Isaias Leilões </t>
         </is>
       </c>
-      <c r="Q247" t="inlineStr">
-        <is>
-          <t>3952</t>
-        </is>
-      </c>
-      <c r="R247" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q247" t="n">
+        <v>3952</v>
+      </c>
+      <c r="R247" t="n">
+        <v>0</v>
       </c>
       <c r="S247" t="inlineStr">
         <is>
@@ -15934,7 +15390,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Outros </t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -15968,7 +15424,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P248" t="inlineStr">
@@ -15976,15 +15432,11 @@
           <t xml:space="preserve"> Isaias Leilões </t>
         </is>
       </c>
-      <c r="Q248" t="inlineStr">
-        <is>
-          <t>82239</t>
-        </is>
-      </c>
-      <c r="R248" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q248" t="n">
+        <v>82239</v>
+      </c>
+      <c r="R248" t="n">
+        <v>0</v>
       </c>
       <c r="S248" t="inlineStr">
         <is>
@@ -16000,7 +15452,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -16062,7 +15514,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -16092,7 +15544,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P250" t="inlineStr">
@@ -16118,7 +15570,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -16148,7 +15600,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P251" t="inlineStr">
@@ -16174,7 +15626,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -16204,7 +15656,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P252" t="inlineStr">
@@ -16230,7 +15682,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -16262,7 +15714,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P253" t="inlineStr">
@@ -16288,7 +15740,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -16320,7 +15772,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P254" t="inlineStr">
@@ -16346,7 +15798,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -16376,7 +15828,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P255" t="inlineStr">
@@ -16402,7 +15854,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -16432,7 +15884,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P256" t="inlineStr">
@@ -16458,7 +15910,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -16488,7 +15940,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P257" t="inlineStr">
@@ -16514,7 +15966,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -16544,7 +15996,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P258" t="inlineStr">
@@ -16570,7 +16022,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -16600,7 +16052,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P259" t="inlineStr">
@@ -16626,7 +16078,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -16656,7 +16108,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P260" t="inlineStr">
@@ -16682,7 +16134,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -16712,7 +16164,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P261" t="inlineStr">
@@ -16738,7 +16190,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -16768,7 +16220,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P262" t="inlineStr">
@@ -16794,7 +16246,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -16824,7 +16276,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P263" t="inlineStr">
@@ -16850,7 +16302,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Terreno </t>
+          <t>Terreno</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -16880,7 +16332,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P264" t="inlineStr">
@@ -16902,7 +16354,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Outros </t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -16936,7 +16388,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>LeilãoSFICaixa</t>
+          <t>Leilão SFI Caixa</t>
         </is>
       </c>
       <c r="P265" t="inlineStr">
@@ -16944,15 +16396,11 @@
           <t xml:space="preserve"> Isaias Leilões </t>
         </is>
       </c>
-      <c r="Q265" t="inlineStr">
-        <is>
-          <t>82240</t>
-        </is>
-      </c>
-      <c r="R265" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="Q265" t="n">
+        <v>82240</v>
+      </c>
+      <c r="R265" t="n">
+        <v>0</v>
       </c>
       <c r="S265" t="inlineStr">
         <is>
@@ -16968,7 +16416,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -17026,7 +16474,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -17058,7 +16506,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P267" t="inlineStr">
@@ -17084,7 +16532,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Terreno </t>
+          <t>Terreno</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -17114,7 +16562,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P268" t="inlineStr">
@@ -17136,7 +16584,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -17168,7 +16616,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P269" t="inlineStr">
@@ -17194,7 +16642,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -17224,7 +16672,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P270" t="inlineStr">
@@ -17250,7 +16698,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -17280,7 +16728,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P271" t="inlineStr">
@@ -17306,7 +16754,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Terreno </t>
+          <t>Terreno</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -17336,7 +16784,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P272" t="inlineStr">
@@ -17362,7 +16810,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -17394,7 +16842,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P273" t="inlineStr">
@@ -17420,7 +16868,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Terreno </t>
+          <t>Terreno</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -17450,7 +16898,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P274" t="inlineStr">
@@ -17476,7 +16924,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Casa </t>
+          <t>Casa</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -17506,7 +16954,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P275" t="inlineStr">
@@ -17532,7 +16980,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Outros </t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -17562,7 +17010,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P276" t="inlineStr">
@@ -17588,7 +17036,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Terreno </t>
+          <t>Terreno</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -17618,7 +17066,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P277" t="inlineStr">
@@ -17644,7 +17092,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Terreno </t>
+          <t>Terreno</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -17674,7 +17122,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P278" t="inlineStr">
@@ -17700,7 +17148,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Terreno </t>
+          <t>Terreno</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -17730,7 +17178,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P279" t="inlineStr">
@@ -17756,7 +17204,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Outros </t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -17788,7 +17236,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P280" t="inlineStr">
@@ -17814,7 +17262,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Outros </t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -17844,7 +17292,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P281" t="inlineStr">
@@ -17870,7 +17318,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apartamento </t>
+          <t>Apartamento</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -17902,7 +17350,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P282" t="inlineStr">
@@ -17928,7 +17376,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Terreno </t>
+          <t>Terreno</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -17958,7 +17406,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P283" t="inlineStr">
@@ -17984,7 +17432,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -18014,7 +17462,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P284" t="inlineStr">
@@ -18040,7 +17488,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -18070,7 +17518,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P285" t="inlineStr">
@@ -18096,7 +17544,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Terreno </t>
+          <t>Terreno</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -18126,7 +17574,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P286" t="inlineStr">
@@ -18152,7 +17600,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Comercial </t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -18182,7 +17630,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>VendaDireta</t>
+          <t>Venda Direta</t>
         </is>
       </c>
       <c r="P287" t="inlineStr">
